--- a/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_02.08.24_output.xlsx
+++ b/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700494.2406015</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700494.3738348</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700494.2406015.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700494.3738348.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>2995.05</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2989</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>6.050000000000182</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700494.4356697</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700494.8774898</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700494.4356697.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700494.8774898.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>2981.65</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2990</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>8.349999999999909</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700496.329586</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700496.5881765</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700496.329586.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700496.5881765.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>2983.75</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2989.45</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>5.699999999999818</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700497.246419</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700497.4887664</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700497.246419.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700497.4887664.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>2981</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2982.3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.300000000000182</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700497.5525675</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700498.3165245</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700497.5525675.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700498.3165245.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>2979</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2974.15</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-4.849999999999909</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700498.7414165</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700498.8561118</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700498.7414165.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700498.8561118.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>2971.1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2973.75</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2.650000000000091</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700498.9737952</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700499.2679815</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700498.9737952.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700499.2679815.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>2976.75</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2975.35</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700499.3348029</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700499.8344984</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700499.3348029.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700499.8344984.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>2974.7</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2972.35</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-2.349999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700499.9521797</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700500.3999846</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700499.9521797.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700500.3999846.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>2974.15</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2976</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.849999999999909</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700500.5176384</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700500.6582923</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700500.5176384.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700500.6582923.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>2975.2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2975.65</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4500000000002728</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700501.0095754</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700502.045737</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700501.0095754.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700502.045737.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>2970.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>2962.35</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-7.950000000000273</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700502.0596998</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700502.733898</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700502.0596998.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700502.733898.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>2962.35</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>2961.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.5499999999997272</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700503.1757166</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700503.6285322</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700503.1757166.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700503.6285322.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>2960.55</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>2960</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.5500000000001819</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700503.6953537</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700503.8609085</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700503.6953537.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700503.8609085.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>2960.3</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>2956.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>3.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700504.127199</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700505.1893318</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700504.127199.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700505.1893318.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>2961.95</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>2966.05</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-4.100000000000364</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700505.4866679</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700505.8516915</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700505.4866679.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700505.8516915.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>2963.3</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>2969.1</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>5.799999999999727</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700506.074097</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731700507.3736496</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700506.074097.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700507.3736496.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>2971.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>2977.65</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-5.849999999999909</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731700507.3876069</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731700507.4514139</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700507.3876069.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700507.4514139.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>2977.65</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>2982</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>4.349999999999909</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731700508.0079534</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731700508.6841366</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700508.0079534.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700508.6841366.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>2970.05</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>2966.65</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-3.400000000000091</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731700508.69808</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731700508.859648</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700508.69808.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700508.859648.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>2966.65</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>2961.05</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>5.599999999999909</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731700508.923477</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731700509.132917</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700508.923477.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700509.132917.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>2958.1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>2963.15</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>5.050000000000182</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731700509.8878992</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731700510.2898245</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700509.8878992.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700510.2898245.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>2960.65</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>2961.45</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.7999999999997272</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731700510.3037858</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731700510.391579</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700510.3037858.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700510.391579.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>2961.45</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>2959.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.649999999999636</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731700510.478347</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731700510.9091682</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700510.478347.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700510.9091682.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>2962.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>2963.75</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-1.550000000000182</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731700510.923131</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731700511.0098987</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700510.923131.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700511.0098987.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>2963.75</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>2965.7</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.949999999999818</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731700511.1934083</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731700511.8476849</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700511.1934083.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700511.8476849.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>2963.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>2963.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3000000000001819</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731700511.9085197</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731700511.9932983</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700511.9085197.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700511.9932983.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>2963.45</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>2961.85</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1943,51 +2121,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731700512.007259</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731700512.338375</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700512.007259.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700512.338375.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>2961.85</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>2963.65</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.800000000000182</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1995,51 +2179,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731700512.352336</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731700512.4151676</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700512.352336.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700512.4151676.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>2963.65</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>2962.2</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.450000000000273</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2047,51 +2237,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731700512.5228515</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731700514.1524935</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700512.5228515.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700514.1524935.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>2964.1</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>2964.35</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2099,44 +2295,50 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731700514.4348526</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700514.4348526.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700514.4348526.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>2967.2</v>
       </c>
-      <c r="J33" t="n">
-        <v>2967.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2965.3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -2197,16 +2399,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.599999999999</v>
+        <v>29.49999999999864</v>
       </c>
       <c r="C2" t="n">
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0.890322580645129</v>
+        <v>0.9516129032257624</v>
       </c>
       <c r="E2" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="F2" t="n">
         <v>0.03</v>
